--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_45/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_8_2024-05-30_PH_45/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.032885738</t>
+          <t>0.0037016715</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.07674246</t>
+          <t>0.043379515</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.019225558</t>
+          <t>0.0056590326</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.062169563</t>
+          <t>0.048168257</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.04759042</t>
+          <t>0.050172083</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.15436953</t>
+          <t>0.15623884</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.05212297</t>
+          <t>0.0523708</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16555373</t>
+          <t>0.16566421</t>
         </is>
       </c>
       <c r="D5" t="n">
